--- a/控制信号.xlsx
+++ b/控制信号.xlsx
@@ -251,9 +251,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -262,6 +262,44 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,7 +327,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +346,30 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,29 +389,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,61 +408,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -415,30 +415,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -454,7 +430,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,54 +580,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -550,55 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,11 +612,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +632,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,21 +662,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,32 +686,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,133 +729,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,8 +1182,8 @@
   <sheetPr/>
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -1833,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
@@ -1981,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>

--- a/控制信号.xlsx
+++ b/控制信号.xlsx
@@ -251,9 +251,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -266,7 +266,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,84 +352,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,6 +386,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -418,25 +418,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,49 +460,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,6 +526,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -575,6 +551,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,6 +612,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -632,6 +652,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,50 +709,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -717,145 +717,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3375,10 +3375,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>

--- a/控制信号.xlsx
+++ b/控制信号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25740" windowHeight="12555"/>
+    <workbookView windowWidth="28800" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,10 +251,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -266,69 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,6 +290,84 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,22 +402,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -418,19 +418,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,25 +466,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,12 +556,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -551,30 +575,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,26 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -652,30 +632,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,6 +665,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -717,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,133 +729,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="1">
         <v>1</v>
